--- a/biology/Botanique/Coffea_fotsoana/Coffea_fotsoana.xlsx
+++ b/biology/Botanique/Coffea_fotsoana/Coffea_fotsoana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coffea fotsoana Stoff. &amp; Sonké est une espèce de plantes dicotylédones de la famille des Rubiaceae et du genre Coffea, originaire du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coffea fotsoana Stoff. &amp; Sonké est une espèce de plantes dicotylédones de la famille des Rubiaceae et du genre Coffea, originaire du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique fotsoana rend hommage à Roger Fotso, biologiste et ornithologue camerounais[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique fotsoana rend hommage à Roger Fotso, biologiste et ornithologue camerounais. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle n'est connue que sur un seul site, dans la région du Sud-Ouest. En février 2002, lors d'un inventaire de biodiversité dans le massif de Mbam Minkom[3], des spécimens de Coffea ont été récoltés à Akoas (rocher d'Ako'akas ?) dans le département de la Lekié, à 40 km au nord-ouest de Yaoundé[4], à une altitude de 860 m, par Bonaventure Sonké et son équipe[5]. 
-Du fait de sa rareté (moins de 250 individus signalés en 2011) et de son exposition à la déforestation liée à l'agriculture, elle est considérée comme « en danger critique d'extinction », selon les critères de l'UICN[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle n'est connue que sur un seul site, dans la région du Sud-Ouest. En février 2002, lors d'un inventaire de biodiversité dans le massif de Mbam Minkom, des spécimens de Coffea ont été récoltés à Akoas (rocher d'Ako'akas ?) dans le département de la Lekié, à 40 km au nord-ouest de Yaoundé, à une altitude de 860 m, par Bonaventure Sonké et son équipe. 
+Du fait de sa rareté (moins de 250 individus signalés en 2011) et de son exposition à la déforestation liée à l'agriculture, elle est considérée comme « en danger critique d'extinction », selon les critères de l'UICN.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est caractérisée par la présence d'une grosse cicatrice observable au-dessus du fruit, la corolle à tube de 3 à 5 mm de long et les lobes d’environ 7 mm de long et de 2,5-3 mm de largeur. C'est un arbuste d’environ 1,5 m de hauteur avec des feuilles à pétiole long de 4-5 mm, une limbe elliptique et un acumen long de 0,5-1 cm
-[3].
+.
 </t>
         </is>
       </c>
